--- a/forecast_summary_B0CTNXBRJV.xlsx
+++ b/forecast_summary_B0CTNXBRJV.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-34.57282329518281</v>
       </c>
       <c r="D2" t="n">
-        <v>-22.2350985159763</v>
+        <v>-22.28000265201809</v>
       </c>
       <c r="E2" t="n">
         <v>123</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-132.9434918982543</v>
       </c>
       <c r="D3" t="n">
-        <v>-120.8800138900456</v>
+        <v>-120.8617231813066</v>
       </c>
       <c r="E3" t="n">
         <v>78</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-143.309372959593</v>
       </c>
       <c r="D4" t="n">
-        <v>-131.6245065872257</v>
+        <v>-129.9812213318789</v>
       </c>
       <c r="E4" t="n">
         <v>76</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>14.6498296111047</v>
       </c>
       <c r="D5" t="n">
-        <v>26.89377665198822</v>
+        <v>26.89299926565927</v>
       </c>
       <c r="E5" t="n">
         <v>56</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>303.3059564655879</v>
       </c>
       <c r="D6" t="n">
-        <v>315.8250326920149</v>
+        <v>315.6615108786513</v>
       </c>
       <c r="E6" t="n">
         <v>55</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>563.8642432504361</v>
       </c>
       <c r="D7" t="n">
-        <v>576.4721576010256</v>
+        <v>574.9650838067876</v>
       </c>
       <c r="E7" t="n">
         <v>57</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>631.0058371209525</v>
       </c>
       <c r="D8" t="n">
-        <v>642.5150972589848</v>
+        <v>643.0836334532582</v>
       </c>
       <c r="E8" t="n">
         <v>59</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>470.5939181657048</v>
       </c>
       <c r="D9" t="n">
-        <v>481.3963501566965</v>
+        <v>482.5045205801987</v>
       </c>
       <c r="E9" t="n">
         <v>60</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>208.5765397504142</v>
       </c>
       <c r="D10" t="n">
-        <v>220.5366595677685</v>
+        <v>221.448877239776</v>
       </c>
       <c r="E10" t="n">
         <v>58</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>19.50851067191353</v>
       </c>
       <c r="D11" t="n">
-        <v>31.58442559787032</v>
+        <v>31.35197385992873</v>
       </c>
       <c r="E11" t="n">
         <v>58</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-17.63135443904837</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.457625521232617</v>
+        <v>-6.213052505295235</v>
       </c>
       <c r="E12" t="n">
         <v>61</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>40.62041077459622</v>
       </c>
       <c r="D13" t="n">
-        <v>52.85665669414371</v>
+        <v>52.73020607424478</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>90.57592333646387</v>
       </c>
       <c r="D14" t="n">
-        <v>103.1864062694349</v>
+        <v>103.5698353992819</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>91.4520709682991</v>
       </c>
       <c r="D15" t="n">
-        <v>103.8205401188452</v>
+        <v>103.5108718704109</v>
       </c>
       <c r="E15" t="n">
         <v>60</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
         <v>83.20353766391091</v>
       </c>
       <c r="D16" t="n">
-        <v>94.94104046909492</v>
+        <v>96.30474106842148</v>
       </c>
       <c r="E16" t="n">
         <v>60</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>112.8005870618857</v>
       </c>
       <c r="D17" t="n">
-        <v>125.3742082791256</v>
+        <v>124.7552291770536</v>
       </c>
       <c r="E17" t="n">
         <v>58</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>169.0237128346955</v>
       </c>
       <c r="D18" t="n">
-        <v>180.4596173558263</v>
+        <v>182.2898460857779</v>
       </c>
       <c r="E18" t="n">
         <v>56</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>200.515848004017</v>
       </c>
       <c r="D19" t="n">
-        <v>212.3916234218171</v>
+        <v>213.150043336072</v>
       </c>
       <c r="E19" t="n">
         <v>57</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>183.8472626231293</v>
       </c>
       <c r="D20" t="n">
-        <v>196.748913733524</v>
+        <v>196.524048042493</v>
       </c>
       <c r="E20" t="n">
         <v>59</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>151.9809502783262</v>
       </c>
       <c r="D21" t="n">
-        <v>164.3928833460058</v>
+        <v>164.1965697128512</v>
       </c>
       <c r="E21" t="n">
         <v>55</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
